--- a/Feedback/Feedback_Project_restructured.xlsx
+++ b/Feedback/Feedback_Project_restructured.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Project Gantt Chart" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -451,6 +451,12 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,12 +465,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +568,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.1264037901695035E-2"/>
           <c:y val="0.11248985517625511"/>
-          <c:w val="0.82461334438458389"/>
+          <c:w val="0.824613344384584"/>
           <c:h val="0.710587627193766"/>
         </c:manualLayout>
       </c:layout>
@@ -879,27 +879,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="73445760"/>
-        <c:axId val="73447296"/>
+        <c:axId val="73453952"/>
+        <c:axId val="73455488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73445760"/>
+        <c:axId val="73453952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73447296"/>
+        <c:crossAx val="73455488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73447296"/>
+        <c:axId val="73455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41887"/>
@@ -919,7 +918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73445760"/>
+        <c:crossAx val="73453952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -936,7 +935,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.89075154026799286"/>
-          <c:y val="0.4774245819842165"/>
+          <c:y val="0.47742458198421667"/>
           <c:w val="6.8667352253482916E-2"/>
           <c:h val="4.3054547608821221E-2"/>
         </c:manualLayout>
@@ -947,7 +946,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1327,8 +1326,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -1396,16 +1395,16 @@
       <c r="C3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51">
         <v>1</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1417,12 +1416,12 @@
       <c r="C4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="47"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="51">
       <c r="A5" s="11"/>
@@ -1432,12 +1431,12 @@
       <c r="C5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="47"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
@@ -1471,7 +1470,7 @@
       </c>
       <c r="H7" s="28">
         <f>SUM(H8:H12)/(COUNTA(H8:H12)*100)*100</f>
-        <v>0.45999999999999996</v>
+        <v>1</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>9</v>
@@ -1546,9 +1545,9 @@
         <v>4</v>
       </c>
       <c r="H10" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1571,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>39</v>
@@ -1596,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1632,7 +1631,7 @@
       </c>
       <c r="H14" s="28">
         <f>SUM(H15:H17)/(COUNTA(H15:H17)*100)*100</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I14" s="37"/>
     </row>
@@ -1655,9 +1654,9 @@
         <v>11</v>
       </c>
       <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="51" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1680,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>40</v>
@@ -1703,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1">
@@ -1731,7 +1730,7 @@
       </c>
       <c r="H19" s="28">
         <f>SUM(H20:H25)/(COUNTA(H20:H25)*100)*100</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="25"/>
     </row>
@@ -1754,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -1804,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>23</v>
@@ -1829,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="13"/>
     </row>
